--- a/legislator/property/output/normal/陳學聖_2012-04-25_財產申報表_tmpfd9c1.xlsx
+++ b/legislator/property/output/normal/陳學聖_2012-04-25_財產申報表_tmpfd9c1.xlsx
@@ -17,9 +17,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="80">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="97">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市新店區華城一段00330000地號</t>
+  </si>
+  <si>
+    <t>桃園縣中壢市三座屋段舊社小段01220009地號</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市三座屋段舊社小段01220002地號</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市三座屋段舊社小段01220071地號</t>
+  </si>
+  <si>
+    <t>桃園縣中壢市三座屋段舊社小段01230075地號</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市三座屋段舊社小段01220092地號</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市三座屋段舊社小段01230373地號</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市三座屋段舊社小段01230391地號</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市三座屋段舊社小段01230401地號</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市三座屋段舊社小段01230402地號</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市三座屋段舊社小段01230403地號</t>
+  </si>
+  <si>
+    <t>桃園縣中壢市H座屋段舊社小段01230404地號</t>
+  </si>
+  <si>
+    <t>10000分之160</t>
+  </si>
+  <si>
+    <t>10000分之222</t>
+  </si>
+  <si>
+    <t>梁寒衣</t>
+  </si>
+  <si>
+    <t>陳學聖</t>
+  </si>
+  <si>
+    <t>90年02月27日</t>
+  </si>
+  <si>
+    <t>99年07月19日</t>
+  </si>
+  <si>
+    <t>99年07月19R</t>
+  </si>
+  <si>
+    <t>99年07月19曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>買賣.</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-25</t>
+  </si>
+  <si>
+    <t>tmpfd9c1</t>
+  </si>
+  <si>
+    <t>建</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>標</t>
+  </si>
+  <si>
+    <t>示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -40,84 +169,6 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市新店區華城一段 0033-0000 地號</t>
-  </si>
-  <si>
-    <t>桃園縣中壢市三座屋段舊社小 段0122-0009地號</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市三座屋段舊社小 段0122-0002地號</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市三座屋段舊社小 段0122-0071地號</t>
-  </si>
-  <si>
-    <t>桃園縣中壢市三座屋段舊社小 段0123-0075地號</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市三座屋段舊社小 段0122-0092地號</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市三座屋段舊社小 段0123-0373地號</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市三座屋段舊社小 段0123-0391地號</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市三座屋段舊社小 段0123-0401地號</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市三座屋段舊社小 段0123-0402地號</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市三座屋段舊社小 段0123-0403地號</t>
-  </si>
-  <si>
-    <t>桃園縣中壢市H座屋段舊社小 段0123-0404地號</t>
-  </si>
-  <si>
-    <t>10000分之 160</t>
-  </si>
-  <si>
-    <t>10000分之 222</t>
-  </si>
-  <si>
-    <t>梁寒衣</t>
-  </si>
-  <si>
-    <t>陳學聖</t>
-  </si>
-  <si>
-    <t>90年02月 27日</t>
-  </si>
-  <si>
-    <t>99年07月 19日</t>
-  </si>
-  <si>
-    <t>99年07月 19 R</t>
-  </si>
-  <si>
-    <t>99年07月 19曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>買賣 .</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>標</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
     <t>新北行</t>
   </si>
   <si>
@@ -136,7 +187,7 @@
     <t>豐二路</t>
   </si>
   <si>
-    <t>10000分之 451</t>
+    <t>10000分之451</t>
   </si>
   <si>
     <t>21分之1</t>
@@ -145,22 +196,22 @@
     <t>全部</t>
   </si>
   <si>
-    <t>10000分之 260</t>
-  </si>
-  <si>
-    <t>6,800,000(建 物三筆合購， 共用部分）</t>
-  </si>
-  <si>
-    <t>4，335，000(建 物一筆合購）</t>
-  </si>
-  <si>
-    <t>4,335’000(建 物二筆合購’ 共有部分）</t>
+    <t>10000分之260</t>
+  </si>
+  <si>
+    <t>6800000(建物三筆合購共用部分）</t>
+  </si>
+  <si>
+    <t>4335000(建物一筆合購）</t>
+  </si>
+  <si>
+    <t>4335000(建物二筆合購共有部分）</t>
   </si>
   <si>
     <t>90年02月</t>
   </si>
   <si>
-    <t>6,800,000(建</t>
+    <t>6800000(建</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -181,13 +232,13 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>合作金庫商業銀行古亭分 行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行永吉分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行古亭分 行</t>
+    <t>合作金庫商業銀行古亭分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行永吉分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行古亭分行</t>
   </si>
   <si>
     <t>大眾商業銀行前鎮分行</t>
@@ -199,13 +250,13 @@
     <t>中華郵政股份有限公司</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司新 店青潭郵局</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行世貿分 行</t>
-  </si>
-  <si>
-    <t>第一商業銀行吉林簡易型 分行</t>
+    <t>中華郵政股份有限公司新店青潭郵局</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行世貿分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行吉林簡易型分行</t>
   </si>
   <si>
     <t>台北富邦商業銀行</t>
@@ -223,7 +274,7 @@
     <t>華南商業銀行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行新店分 行</t>
+    <t>合作金庫商業銀行新店分行</t>
   </si>
   <si>
     <t>綜合存款</t>
@@ -615,13 +666,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,317 +694,590 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>10026.11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2">
         <v>6800000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>840</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>168</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2">
         <v>4335000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>840</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H4" s="2">
         <v>4335000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>840</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2">
         <v>4335000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2">
+        <v>840</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H6" s="2">
         <v>4335000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2">
+        <v>840</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H7" s="2">
         <v>4335000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="2">
+        <v>840</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H8" s="2">
         <v>4335000</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2">
+        <v>840</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2">
         <v>4335000</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="2">
+        <v>840</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>0.132</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H10" s="2">
         <v>4335000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="2">
+        <v>840</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>130</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H11" s="2">
         <v>4335000</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="2">
+        <v>840</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H12" s="2">
         <v>4335000</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="2">
+        <v>840</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>70</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H13" s="2">
         <v>4335000</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="2">
+        <v>840</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -971,34 +1295,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1006,32 +1330,32 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2">
         <v>103.34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1039,25 +1363,25 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2">
         <v>274.35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1068,25 +1392,25 @@
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2">
         <v>749.11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1097,25 +1421,25 @@
         <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2">
         <v>145.61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1126,25 +1450,25 @@
         <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2">
         <v>1657.46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1165,22 +1489,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1188,16 +1512,16 @@
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1209,16 +1533,16 @@
         <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1230,16 +1554,16 @@
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1251,16 +1575,16 @@
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1272,16 +1596,16 @@
         <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1293,16 +1617,16 @@
         <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1314,16 +1638,16 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1335,16 +1659,16 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1356,16 +1680,16 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1377,16 +1701,16 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1398,16 +1722,16 @@
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1419,16 +1743,16 @@
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1440,16 +1764,16 @@
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1461,16 +1785,16 @@
         <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1482,16 +1806,16 @@
         <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1503,16 +1827,16 @@
         <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1524,16 +1848,16 @@
         <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1545,16 +1869,16 @@
         <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1566,16 +1890,16 @@
         <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F20" s="2">
         <v>74.95</v>
@@ -1599,13 +1923,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1613,13 +1937,13 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳學聖_2012-04-25_財產申報表_tmpfd9c1.xlsx
+++ b/legislator/property/output/normal/陳學聖_2012-04-25_財產申報表_tmpfd9c1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -61,7 +61,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市新店區華城一段00330000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>桃園縣中壢市三座屋段舊社小段01220009地號</t>
@@ -97,108 +100,81 @@
     <t>桃園縣中壢市H座屋段舊社小段01230404地號</t>
   </si>
   <si>
-    <t>10000分之160</t>
-  </si>
-  <si>
     <t>10000分之222</t>
   </si>
   <si>
+    <t>陳學聖</t>
+  </si>
+  <si>
+    <t>99年07月19日</t>
+  </si>
+  <si>
+    <t>99年07月19R</t>
+  </si>
+  <si>
+    <t>99年07月19曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>買賣.</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-25</t>
+  </si>
+  <si>
+    <t>tmpfd9c1</t>
+  </si>
+  <si>
+    <t>新北行</t>
+  </si>
+  <si>
+    <t>〒新店區禾</t>
+  </si>
+  <si>
+    <t>豐二路</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>梁寒衣</t>
   </si>
   <si>
-    <t>陳學聖</t>
+    <t>90年02月</t>
+  </si>
+  <si>
+    <t>6800000(建</t>
+  </si>
+  <si>
+    <t>新北市新店區禾豐二路</t>
+  </si>
+  <si>
+    <t>桃園縣中壢市中央西路</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市中央西路</t>
+  </si>
+  <si>
+    <t>10000分之451</t>
+  </si>
+  <si>
+    <t>21分之1</t>
+  </si>
+  <si>
+    <t>10000分之260</t>
   </si>
   <si>
     <t>90年02月27日</t>
   </si>
   <si>
-    <t>99年07月19日</t>
-  </si>
-  <si>
-    <t>99年07月19R</t>
-  </si>
-  <si>
-    <t>99年07月19曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>買賣.</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-25</t>
-  </si>
-  <si>
-    <t>tmpfd9c1</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>標</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>新北行</t>
-  </si>
-  <si>
-    <t>新北市新店區禾豐二路</t>
-  </si>
-  <si>
-    <t>桃園縣中壢市中央西路</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市中央西路</t>
-  </si>
-  <si>
-    <t>〒新店區禾</t>
-  </si>
-  <si>
-    <t>豐二路</t>
-  </si>
-  <si>
-    <t>10000分之451</t>
-  </si>
-  <si>
-    <t>21分之1</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之260</t>
-  </si>
-  <si>
     <t>6800000(建物三筆合購共用部分）</t>
   </si>
   <si>
@@ -208,33 +184,15 @@
     <t>4335000(建物二筆合購共有部分）</t>
   </si>
   <si>
-    <t>90年02月</t>
-  </si>
-  <si>
-    <t>6800000(建</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>合作金庫商業銀行古亭分行</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行永吉分行</t>
   </si>
   <si>
@@ -277,9 +235,6 @@
     <t>合作金庫商業銀行新店分行</t>
   </si>
   <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
@@ -289,19 +244,7 @@
     <t>支票存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
   </si>
   <si>
     <t>中華郵政</t>
@@ -666,13 +609,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,569 +658,594 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>10026.11</v>
+        <v>168</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4335000</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="2">
-        <v>6800000</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2" s="2">
         <v>840</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0222</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>3.7296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="2">
         <v>4335000</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3" s="2">
         <v>840</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0222</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1.2654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2">
         <v>4335000</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M4" s="2">
         <v>840</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0222</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2.553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2">
         <v>4335000</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M5" s="2">
         <v>840</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0222</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.2664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2">
         <v>4335000</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M6" s="2">
         <v>840</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0222</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1.6428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2">
         <v>4335000</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M7" s="2">
         <v>840</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.0222</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.3552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8" s="2">
         <v>4335000</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M8" s="2">
         <v>840</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.0222</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2.4642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>111</v>
+        <v>0.132</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="H9" s="2">
         <v>4335000</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M9" s="2">
         <v>840</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.0222</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.0029304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>0.132</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10" s="2">
         <v>4335000</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="L10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M10" s="2">
         <v>840</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.0222</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>2.886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11" s="2">
         <v>4335000</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="L11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M11" s="2">
         <v>840</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.0222</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.0222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12" s="2">
         <v>4335000</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="L12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M12" s="2">
         <v>840</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1">
         <v>25</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2">
-        <v>70</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="2">
-        <v>4335000</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="2">
-        <v>840</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13" s="2">
-        <v>25</v>
+      <c r="P12" s="2">
+        <v>0.0222</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1.554</v>
       </c>
     </row>
   </sheetData>
@@ -1287,7 +1255,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1295,93 +1263,87 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1">
+        <v>103.34</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="C2" s="2">
+        <v>274.35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2">
-        <v>103.34</v>
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2">
+        <v>749.11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="2">
-        <v>274.35</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1389,28 +1351,28 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
-        <v>749.11</v>
+        <v>145.61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1418,61 +1380,32 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
-        <v>145.61</v>
+        <v>1657.46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>36</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1657.46</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1481,7 +1414,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1489,422 +1422,399 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>28</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>716714</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>716714</v>
+        <v>68309</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>68309</v>
+        <v>24859</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>24859</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>203</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>65</v>
+        <v>145595</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>145595</v>
+        <v>6415914</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>6415914</v>
+        <v>143553</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>143553</v>
+        <v>1994108</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>1994108</v>
+        <v>215081</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>215081</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>327</v>
+        <v>876</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>876</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>3294</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>54</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>1051</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>1104</v>
+        <v>22697</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>22697</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <v>74.95</v>
+      </c>
       <c r="G19" s="2">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>79</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="2">
-        <v>74.95</v>
-      </c>
-      <c r="G20" s="2">
         <v>2183.66</v>
       </c>
     </row>
@@ -1915,35 +1825,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="B1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="2:4">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>109</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳學聖_2012-04-25_財產申報表_tmpfd9c1.xlsx
+++ b/legislator/property/output/normal/陳學聖_2012-04-25_財產申報表_tmpfd9c1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -67,6 +67,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市新店區華城一段00330000地號</t>
+  </si>
+  <si>
     <t>桃園縣中壢市三座屋段舊社小段01220009地號</t>
   </si>
   <si>
@@ -100,12 +103,21 @@
     <t>桃園縣中壢市H座屋段舊社小段01230404地號</t>
   </si>
   <si>
+    <t>10000分之160</t>
+  </si>
+  <si>
     <t>10000分之222</t>
   </si>
   <si>
+    <t>梁寒衣</t>
+  </si>
+  <si>
     <t>陳學聖</t>
   </si>
   <si>
+    <t>90年02月27日</t>
+  </si>
+  <si>
     <t>99年07月19日</t>
   </si>
   <si>
@@ -133,46 +145,28 @@
     <t>tmpfd9c1</t>
   </si>
   <si>
-    <t>新北行</t>
-  </si>
-  <si>
-    <t>〒新店區禾</t>
-  </si>
-  <si>
-    <t>豐二路</t>
+    <t>新北市新店區禾豐二路</t>
+  </si>
+  <si>
+    <t>桃園縣中壢市中央西路</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市中央西路</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>梁寒衣</t>
-  </si>
-  <si>
-    <t>90年02月</t>
+    <t>10000分之451</t>
+  </si>
+  <si>
+    <t>21分之1</t>
+  </si>
+  <si>
+    <t>10000分之260</t>
   </si>
   <si>
     <t>6800000(建</t>
-  </si>
-  <si>
-    <t>新北市新店區禾豐二路</t>
-  </si>
-  <si>
-    <t>桃園縣中壢市中央西路</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市中央西路</t>
-  </si>
-  <si>
-    <t>10000分之451</t>
-  </si>
-  <si>
-    <t>21分之1</t>
-  </si>
-  <si>
-    <t>10000分之260</t>
-  </si>
-  <si>
-    <t>90年02月27日</t>
   </si>
   <si>
     <t>6800000(建物三筆合購共用部分）</t>
@@ -609,7 +603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,584 +661,637 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>168</v>
+        <v>10026.11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2">
-        <v>4335000</v>
+        <v>6800000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2">
         <v>840</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0222</v>
+        <v>0.016</v>
       </c>
       <c r="Q2" s="2">
-        <v>3.7296</v>
+        <v>160.41776</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2">
         <v>4335000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M3" s="2">
         <v>840</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.0222</v>
       </c>
       <c r="Q3" s="2">
-        <v>1.2654</v>
+        <v>3.7296</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2">
         <v>4335000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M4" s="2">
         <v>840</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.0222</v>
       </c>
       <c r="Q4" s="2">
-        <v>2.553</v>
+        <v>1.2654</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2">
         <v>4335000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M5" s="2">
         <v>840</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>0.0222</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.2664</v>
+        <v>2.553</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2">
         <v>4335000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M6" s="2">
         <v>840</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>0.0222</v>
       </c>
       <c r="Q6" s="2">
-        <v>1.6428</v>
+        <v>0.2664</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2">
         <v>4335000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M7" s="2">
         <v>840</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>0.0222</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.3552</v>
+        <v>1.6428</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H8" s="2">
         <v>4335000</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M8" s="2">
         <v>840</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>0.0222</v>
       </c>
       <c r="Q8" s="2">
-        <v>2.4642</v>
+        <v>0.3552</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>0.132</v>
+        <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H9" s="2">
         <v>4335000</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M9" s="2">
         <v>840</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>0.0222</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.0029304</v>
+        <v>2.4642</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>130</v>
+        <v>0.132</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2">
         <v>4335000</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M10" s="2">
         <v>840</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>0.0222</v>
       </c>
       <c r="Q10" s="2">
-        <v>2.886</v>
+        <v>0.0029304</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H11" s="2">
         <v>4335000</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M11" s="2">
         <v>840</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
         <v>0.0222</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.0222</v>
+        <v>2.886</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H12" s="2">
         <v>4335000</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M12" s="2">
         <v>840</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
         <v>0.0222</v>
       </c>
       <c r="Q12" s="2">
+        <v>0.0222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2">
+        <v>70</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4335000</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="2">
+        <v>840</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.0222</v>
+      </c>
+      <c r="Q13" s="2">
         <v>1.554</v>
       </c>
     </row>
@@ -1255,157 +1302,326 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2">
+        <v>103.34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1">
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2">
+        <v>840</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="2">
+        <v>30</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>103.34</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2">
+        <v>274.35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2">
+        <v>840</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O3" s="2">
+        <v>31</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0451</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>12.373185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C4" s="2">
+        <v>749.11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
+        <v>840</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="2">
+        <v>32</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0476190476190476</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>35.6719047619048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="C5" s="2">
+        <v>145.61</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2">
+        <v>840</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="2">
+        <v>33</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>145.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="2">
-        <v>274.35</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C6" s="2">
+        <v>1657.46</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2">
+        <v>840</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="2">
         <v>34</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2">
-        <v>749.11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="2">
-        <v>145.61</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1657.46</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="P6" s="2">
+        <v>0.026</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>43.09396</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1414,7 +1630,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1422,16 +1638,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1440,381 +1656,402 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>68309</v>
+        <v>716714</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>24859</v>
+        <v>68309</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>203</v>
+        <v>24859</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>65</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>145595</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>6415914</v>
+        <v>145595</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>143553</v>
+        <v>6415914</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>1994108</v>
+        <v>143553</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>215081</v>
+        <v>1994108</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>327</v>
+        <v>215081</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
+        <v>69</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>876</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>3294</v>
+        <v>876</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>54</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>1051</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>1104</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>22697</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>1694</v>
+        <v>22697</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>77</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="E20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="2">
         <v>74.95</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G20" s="2">
         <v>2183.66</v>
       </c>
     </row>
@@ -1825,21 +2062,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>107</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳學聖_2012-04-25_財產申報表_tmpfd9c1.xlsx
+++ b/legislator/property/output/normal/陳學聖_2012-04-25_財產申報表_tmpfd9c1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="77">
   <si>
     <t>name</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>4335000(建物二筆合購共有部分）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>合作金庫商業銀行古亭分行</t>
@@ -1384,7 +1387,7 @@
         <v>49</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>39</v>
@@ -1437,7 +1440,7 @@
         <v>50</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>39</v>
@@ -1490,7 +1493,7 @@
         <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>39</v>
@@ -1543,7 +1546,7 @@
         <v>51</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>39</v>
@@ -1596,7 +1599,7 @@
         <v>52</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>39</v>
@@ -1638,13 +1641,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
@@ -1659,13 +1662,13 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
@@ -1680,13 +1683,13 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -1701,13 +1704,13 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
@@ -1722,13 +1725,13 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -1743,13 +1746,13 @@
         <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>31</v>
@@ -1764,13 +1767,13 @@
         <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>31</v>
@@ -1785,13 +1788,13 @@
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
@@ -1806,13 +1809,13 @@
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>31</v>
@@ -1827,13 +1830,13 @@
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -1848,13 +1851,13 @@
         <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>30</v>
@@ -1869,13 +1872,13 @@
         <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
@@ -1890,13 +1893,13 @@
         <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>31</v>
@@ -1911,13 +1914,13 @@
         <v>71</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
@@ -1932,13 +1935,13 @@
         <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>31</v>
@@ -1953,13 +1956,13 @@
         <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>31</v>
@@ -1974,13 +1977,13 @@
         <v>74</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>31</v>
@@ -1995,13 +1998,13 @@
         <v>75</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>31</v>
@@ -2016,13 +2019,13 @@
         <v>76</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>30</v>
@@ -2037,13 +2040,13 @@
         <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>31</v>
@@ -2070,10 +2073,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -2084,10 +2087,10 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>

--- a/legislator/property/output/normal/陳學聖_2012-04-25_財產申報表_tmpfd9c1.xlsx
+++ b/legislator/property/output/normal/陳學聖_2012-04-25_財產申報表_tmpfd9c1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -181,67 +181,79 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行古亭分行</t>
   </si>
   <si>
+    <t>合作金庫商業銀行永吉分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行古亭分行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行前鎮分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行古亭分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司新店青潭郵局</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行世貿分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行吉林簡易型分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>聯邦商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行古亭分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行新店分行</t>
+  </si>
+  <si>
     <t>綜合存款</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>合作金庫商業銀行永吉分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行古亭分行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行前鎮分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行古亭分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司新店青潭郵局</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行世貿分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行吉林簡易型分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
-    <t>聯邦商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行古亭分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行新店分行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
     <t>美金</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>中華郵政</t>
@@ -1633,13 +1645,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1650,412 +1662,810 @@
         <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>716714</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>716714</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2">
+        <v>840</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>68309</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2">
+        <v>840</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>24859</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2">
+        <v>840</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>203</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2">
+        <v>840</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2">
+        <v>840</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>145595</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="2">
+        <v>840</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>6415914</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="2">
+        <v>840</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>143553</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="2">
+        <v>840</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>1994108</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="2">
+        <v>840</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>215081</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="2">
+        <v>840</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>327</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="2">
+        <v>840</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>876</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="2">
+        <v>840</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>71</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>3294</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="2">
+        <v>840</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="2">
+        <v>840</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>1051</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="2">
+        <v>840</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>74</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>1104</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="2">
+        <v>840</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>75</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>22697</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="2">
+        <v>840</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>76</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>1694</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="2">
+        <v>840</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="2">
-        <v>74.95</v>
-      </c>
-      <c r="G20" s="2">
         <v>2183.66</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="2">
+        <v>840</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="2">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2073,10 +2483,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -2087,10 +2497,10 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>

--- a/legislator/property/output/normal/陳學聖_2012-04-25_財產申報表_tmpfd9c1.xlsx
+++ b/legislator/property/output/normal/陳學聖_2012-04-25_財產申報表_tmpfd9c1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="83">
   <si>
     <t>name</t>
   </si>
@@ -256,10 +256,16 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>中華郵政</t>
   </si>
   <si>
     <t>吉利保險</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -2475,35 +2481,77 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2">
+        <v>840</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
